--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58701.73321374614</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58701.73321374614</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.7276286073473</v>
+        <v>13446.22569584245</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.7276286073473</v>
+        <v>13446.22569584245</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036126666.62905</v>
+        <v>42885673.13000821</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9030.276355834894</v>
+        <v>1014154.509126086</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17003.27830814392</v>
+        <v>1863768.151666121</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24976.28026045294</v>
+        <v>2713381.794206157</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32982.12013236061</v>
+        <v>3565400.771719149</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40977.98182245009</v>
+        <v>4415434.091050325</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48973.84351253956</v>
+        <v>5265467.410381501</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56969.70520262905</v>
+        <v>6115500.729712673</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64965.56689271853</v>
+        <v>6965534.049043844</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72961.42858280803</v>
+        <v>7815567.368375015</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80957.29027289753</v>
+        <v>8665600.687706186</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88953.15196298703</v>
+        <v>9515634.007037362</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96916.17573347784</v>
+        <v>10363261.99139559</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104889.1776857868</v>
+        <v>11212875.63393562</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112862.1796380958</v>
+        <v>12062489.27647567</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120835.1815904048</v>
+        <v>12912102.91901571</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>396</v>
@@ -27052,19 +27052,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>396</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,10 +27144,10 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
